--- a/Rea-VCG-dataset.xlsx
+++ b/Rea-VCG-dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\29463\Desktop\chain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24216AA2-F7E2-4BA3-831F-CF303EA42048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ADE352-21C3-40F4-BF45-7CB96BE76E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="309">
   <si>
     <t>cve</t>
   </si>
@@ -481,18 +481,6 @@
     <t>cause a denial of service (crash) and possibly execute arbitrary code</t>
   </si>
   <si>
-    <t>CVE-2011-0695</t>
-  </si>
-  <si>
-    <t>Race condition in the cm_work_handler function in the InfiniBand driver (drivers/infiniband/core/cma.c) in Linux kernel 2.6.x allows remote attackers to cause a denial of service (panic) by sending an InfiniBand request while other request handlers are still running, which triggers an invalid pointer dereference.</t>
-  </si>
-  <si>
-    <t>sending an InfiniBand request while other request handlers are still running</t>
-  </si>
-  <si>
-    <t>cause a denial of service (panic)</t>
-  </si>
-  <si>
     <t>cpe:2.3:o:linux:linux_kernel:*:*:*:*:*:*:*:*</t>
   </si>
   <si>
@@ -515,9 +503,6 @@
   </si>
   <si>
     <t>the id parameter</t>
-  </si>
-  <si>
-    <t>CVE-2008-6701</t>
   </si>
   <si>
     <t>NetScout (formerly Network General) Visualizer V2100 and InfiniStream i1730 do not restrict access to ResourceManager/en_US/domains/add_domain.jsp, which allows remote attackers to gain administrator privileges via a direct request.</t>
@@ -642,21 +627,6 @@
     <t>cpe:2.3:a:pulsesecure:virtual_traffic_manager:*:*:*:*:*:*:*:*</t>
   </si>
   <si>
-    <t>CVE-2016-7777</t>
-  </si>
-  <si>
-    <t>Xen 4.7.x and earlier does not properly honor CR0.TS and CR0.EM, which allows local x86 HVM guest OS users to read or modify FPU, MMX, or XMM register state information belonging to arbitrary tasks on the guest by modifying an instruction while the hypervisor is preparing to emulate it.</t>
-  </si>
-  <si>
-    <t>modifying an instruction while the hypervisor is preparing to emulate it</t>
-  </si>
-  <si>
-    <t>read or modify FPU, MMX, or XMM register state information belonging to arbitrary tasks on the guest</t>
-  </si>
-  <si>
-    <t>cpe:2.3:o:xen:xen:*:*:*:*:*:*:*:*</t>
-  </si>
-  <si>
     <t>CVE-2011-3638</t>
   </si>
   <si>
@@ -892,34 +862,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2020-4357</t>
-  </si>
-  <si>
-    <t>IBM Spectrum Scale 5.0.0.0 through 5.0.4.4 could allow a remote attacker to obtain sensitive information when a detailed technical error message is returned in the browser. This information could be used in further attacks against the system. IBM X-Force ID: 178761.</t>
-  </si>
-  <si>
-    <t>a detailed technical error message is returned in the browser</t>
-  </si>
-  <si>
-    <t>cpe:2.3:a:ibm:spectrum_scale:*:*:*:*:*:*:*:*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2013-6304</t>
-  </si>
-  <si>
-    <t>Multiple directory traversal vulnerabilities in Algo Risk Application (ARA) 2.4.0.1 through 4.9.1 in IBM Algo One allow remote authenticated users to bypass intended access restrictions via a crafted pathname for a (1) configuration or (2) JAR file.</t>
-  </si>
-  <si>
-    <t>a crafted pathname for a (1) configuration or (2) JAR file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bypass intended access restrictions </t>
-  </si>
-  <si>
-    <t>cpe:2.3:a:ibm:algo_one:4.9.1:*:*:*:*:*:*:*</t>
-  </si>
-  <si>
     <t>CVE-2007-5312</t>
   </si>
   <si>
@@ -936,18 +878,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2015-6118</t>
-  </si>
-  <si>
-    <t>Microsoft Office 2007 SP3 and Office 2010 SP2 allow remote attackers to execute arbitrary code via a crafted Office document, aka "Microsoft Office Memory Corruption Vulnerability."</t>
-  </si>
-  <si>
-    <t>a crafted Office document</t>
-  </si>
-  <si>
-    <t>cpe:2.3:a:microsoft:office:2007:sp3:*:*:*:*:*:*</t>
-  </si>
-  <si>
     <t>cpe:2.3:h:huawei:huawei_firmware</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -999,6 +929,53 @@
   <si>
     <t>cpe:2.3:o:linux:linux_kernel:*:*:*:*:*:*:*:*</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2008-6701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2018-15698</t>
+  </si>
+  <si>
+    <t>ASUSTOR Data Master 3.1.5 and below allows authenticated remote non-administrative users to read any file on the file system when providing the full path to loginimage.cgi.</t>
+  </si>
+  <si>
+    <t>providing the full path to loginimage.cgi</t>
+  </si>
+  <si>
+    <t>read any file on the file system</t>
+  </si>
+  <si>
+    <t>cpe:2.3:o:asustor:data_master:*:*:*:*:*:*:*:*</t>
+  </si>
+  <si>
+    <t>CVE-2008-6278</t>
+  </si>
+  <si>
+    <t>Multiple cross-site scripting (XSS) vulnerabilities in product.php in RakhiSoftware Price Comparison Script (aka Shopping Cart) allow remote attackers to inject arbitrary web script or HTML via the (1) category_id and (2) subcategory_id parameters.</t>
+  </si>
+  <si>
+    <t>the (1) category_id and (2) subcategory_id parameters</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:rakhisoftware:rakhisoftware_shopping_cart:-:*:*:*:*:*:*:*</t>
+  </si>
+  <si>
+    <t>CVE-2018-20823</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-5609</t>
+  </si>
+  <si>
+    <t>SQL injection vulnerability in include/functions_entries.inc.php in Serendipity 2.0.5 allows remote authenticated users to execute arbitrary SQL commands via the cat parameter.</t>
+  </si>
+  <si>
+    <t>the cat parameter</t>
+  </si>
+  <si>
+    <t>cpe:2.3:a:s9y:serendipity:2.0.5:*:*:*:*:*:*:*</t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1641,19 +1618,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="G12">
         <v>10</v>
@@ -1664,19 +1641,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G13">
         <v>10</v>
@@ -1825,19 +1802,19 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>10</v>
@@ -1848,19 +1825,19 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G21">
         <v>6.8</v>
@@ -1871,7 +1848,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
         <v>82</v>
@@ -1883,7 +1860,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G22">
         <v>4.9000000000000004</v>
@@ -1894,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
@@ -2021,7 +1998,7 @@
         <v>100</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -2101,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s">
         <v>110</v>
@@ -2113,7 +2090,7 @@
         <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G32">
         <v>3.4</v>
@@ -2159,7 +2136,7 @@
         <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="G34">
         <v>10</v>
@@ -2205,7 +2182,7 @@
         <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -2251,7 +2228,7 @@
         <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="G38">
         <v>3.9</v>
@@ -2320,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -2343,7 +2320,7 @@
         <v>152</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -2354,19 +2331,19 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E43" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F43" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G43">
         <v>10</v>
@@ -2377,19 +2354,19 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G44">
         <v>10</v>
@@ -2412,7 +2389,7 @@
         <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -2423,19 +2400,19 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E46" t="s">
         <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G46">
         <v>8</v>
@@ -2446,19 +2423,19 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G47">
         <v>8.6</v>
@@ -2469,19 +2446,19 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E48" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F48" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G48">
         <v>10</v>
@@ -2492,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
@@ -2515,19 +2492,19 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D50" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G50">
         <v>8.6</v>
@@ -2538,19 +2515,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C51" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F51" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="G51">
         <v>3.9</v>
@@ -2584,19 +2561,19 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G53">
         <v>6.8</v>
@@ -2607,10 +2584,10 @@
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -2619,7 +2596,7 @@
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G54">
         <v>8.6</v>
@@ -2630,7 +2607,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
         <v>110</v>
@@ -2642,7 +2619,7 @@
         <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G55">
         <v>3.4</v>
@@ -2653,10 +2630,10 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D56" t="s">
         <v>103</v>
@@ -2665,7 +2642,7 @@
         <v>81</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G56">
         <v>8.6</v>
@@ -2699,19 +2676,19 @@
         <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G58">
         <v>10</v>
@@ -2722,19 +2699,19 @@
         <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D59" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E59" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F59" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G59">
         <v>10</v>
@@ -2745,19 +2722,19 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G60">
         <v>6.8</v>
@@ -2837,19 +2814,19 @@
         <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D64" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="G64">
         <v>10</v>
@@ -2860,19 +2837,19 @@
         <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -2883,19 +2860,19 @@
         <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F66" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G66">
         <v>10</v>
@@ -2906,19 +2883,19 @@
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G67">
         <v>1.9</v>
@@ -2929,19 +2906,19 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F68" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G68">
         <v>8.6</v>
@@ -2952,19 +2929,19 @@
         <v>25</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F69" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G69">
         <v>10</v>
@@ -2975,19 +2952,19 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C70" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D70" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F70" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G70">
         <v>10</v>
@@ -2998,19 +2975,19 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" t="s">
         <v>159</v>
-      </c>
-      <c r="C71" t="s">
-        <v>160</v>
-      </c>
-      <c r="D71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E71" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" t="s">
-        <v>163</v>
       </c>
       <c r="G71">
         <v>3.9</v>
@@ -3021,19 +2998,19 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E72" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F72" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G72">
         <v>6.8</v>
@@ -3056,7 +3033,7 @@
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G73">
         <v>10</v>
@@ -3067,19 +3044,19 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D74" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E74" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G74">
         <v>10</v>
@@ -3102,7 +3079,7 @@
         <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G75">
         <v>10</v>
@@ -3113,19 +3090,19 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D76" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="F76" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="G76">
         <v>8</v>
@@ -3136,19 +3113,19 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="E77" t="s">
         <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="G77">
         <v>8.6</v>
@@ -3159,22 +3136,22 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>290</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3182,22 +3159,22 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="G79">
-        <v>5.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,19 +3182,19 @@
         <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
         <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="G80">
         <v>8.6</v>
@@ -3228,19 +3205,19 @@
         <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
         <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -3274,19 +3251,19 @@
         <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E83" t="s">
         <v>61</v>
       </c>
       <c r="F83" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="G83">
         <v>10</v>
@@ -3297,19 +3274,19 @@
         <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
         <v>81</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G84">
         <v>8.6</v>
@@ -3320,19 +3297,19 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D85" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F85" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -3343,19 +3320,19 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="G86">
         <v>8.6</v>
@@ -3389,22 +3366,22 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>307</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>30</v>
       </c>
       <c r="F88" t="s">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="G88">
-        <v>3.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,19 +3389,19 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="G89">
         <v>8.6</v>
@@ -3435,22 +3412,22 @@
         <v>30</v>
       </c>
       <c r="B90" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="G90">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3458,22 +3435,22 @@
         <v>30</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="D91" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="E91" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>
